--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="168">
   <si>
     <t>序号</t>
   </si>
@@ -466,104 +466,149 @@
     <t>备注</t>
   </si>
   <si>
-    <t>30 [29]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>施肥调整</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程拦截</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生态沟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>-</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有机肥替代</t>
-    </r>
-  </si>
-  <si>
-    <t>缓释掺混肥处理</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>大理市</t>
-  </si>
-  <si>
-    <t>洱源县</t>
-  </si>
-  <si>
-    <t>农家肥、缓释掺混肥</t>
-  </si>
-  <si>
-    <t>部分农家肥、相应作物的缓释肥，缓释掺混肥含 N 30%、P2O5 46%、K2O 50%。</t>
-  </si>
-  <si>
-    <t>田间小区试验</t>
-  </si>
-  <si>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湿地</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洱海流域不同轮作与施肥方式</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>无锡市</t>
+  </si>
+  <si>
+    <t>滨湖区</t>
+  </si>
+  <si>
+    <t>太湖贡湖湾东部</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挺水植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对农田氮磷径流损失的影响</t>
-    </r>
-  </si>
-  <si>
-    <t>31 [30]</t>
-  </si>
-  <si>
-    <t>优化施肥</t>
-  </si>
-  <si>
-    <t>喜洲镇作邑村</t>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>藻类</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水稻</t>
-    </r>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>茭草、芦苇和粉绿狐尾藻</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>田间小区试验</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生态沟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -572,71 +617,83 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>施肥</t>
-    </r>
-  </si>
-  <si>
-    <t>水稻、黑麦草、肥料</t>
-  </si>
-  <si>
-    <t>32 [31]</t>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>湿地</t>
+    </r>
+  </si>
+  <si>
+    <t>生态沟-湿地系统对农田排水氮磷的去除效应_朱金格.</t>
+  </si>
+  <si>
+    <t>2 [2]</t>
+  </si>
+  <si>
+    <t>生态沟+草被缓冲带</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>湖州市</t>
+  </si>
+  <si>
+    <t>安吉县</t>
+  </si>
+  <si>
+    <t>刘灵路</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挺水植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>施肥调整</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉水植物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>-</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>化肥减量</t>
-    </r>
-  </si>
-  <si>
-    <t>化肥减量</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>奉贤区</t>
-  </si>
-  <si>
-    <t>青村镇钱忠村</t>
-  </si>
-  <si>
-    <t>基肥，追施返青肥、分蘖肥和穗肥</t>
-  </si>
-  <si>
-    <t>化肥减量20%</t>
-  </si>
-  <si>
-    <t>地表径流监测试验</t>
-  </si>
-  <si>
-    <t>减量施肥条件下稻田径流氮磷流失特征的研究</t>
-  </si>
-  <si>
-    <t>33 [32]</t>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草本植物</t>
+    </r>
+  </si>
+  <si>
+    <t>金森女贞、旱伞、香根草、矮生苦草、轮叶黑藻、伊乐藻、香蒲、慈姑、再力花、水葱、菖蒲</t>
   </si>
   <si>
     <r>
@@ -646,16 +703,27 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>组合</t>
-    </r>
+      <t>田间试验</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组合式氮磷拦截技术应用于农业面源污染综合治理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>-</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -664,7 +732,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>过程拦截</t>
+      <t>何凡</t>
     </r>
     <r>
       <rPr>
@@ -673,6 +741,29 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t>.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>3 [3]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多级渠塘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>+</t>
     </r>
     <r>
@@ -682,8 +773,26 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>施肥调整</t>
-    </r>
+      <t>湿地</t>
+    </r>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>十堰市</t>
+  </si>
+  <si>
+    <t>勋县</t>
+  </si>
+  <si>
+    <t>安阳镇余咀村</t>
+  </si>
+  <si>
+    <t>挺水植物</t>
+  </si>
+  <si>
+    <t>石菖蒲、水芹</t>
   </si>
   <si>
     <r>
@@ -693,16 +802,27 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>植物篱</t>
-    </r>
+      <t>模拟实验</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多级渠塘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>+</t>
+      <t>—</t>
     </r>
     <r>
       <rPr>
@@ -711,215 +831,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>施肥</t>
-    </r>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>苏州市</t>
-  </si>
-  <si>
-    <t>吴中区</t>
-  </si>
-  <si>
-    <t>太湖西山岛衙甪里村</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>草</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>施肥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>麦冬植物篱，商品有机肥，田间沟渠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>试验小区</t>
-    </r>
-  </si>
-  <si>
-    <t>34 [33]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生物炭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>施肥</t>
-    </r>
-  </si>
-  <si>
-    <t>玉溪市</t>
-  </si>
-  <si>
-    <t>九溪镇上果木庄园</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生物炭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肥料</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雪妃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（糯玉米）化肥选择当地普遍使用的尿素、
-普钙及硫酸钾，经检测，尿素中含氮量为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 46%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，普钙的含磷量为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 16%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。庄园内的沼气池沼肥，
-艾美施有机肥和生物炭</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>田间小区试验</t>
+      <t>湿地复合生态处理系统削减坡地排水中氮磷负荷研究</t>
     </r>
   </si>
   <si>
@@ -1759,7 +1671,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1783,11 +1695,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1820,25 +1727,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1986,18 +1876,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2343,137 +2227,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2490,62 +2374,40 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2870,618 +2732,624 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55833333333333" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="10.775" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.4416666666667" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.88333333333333" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.775" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.55833333333333" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.3333333333333" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.10833333333333" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.6666666666667" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.775" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.4416666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.88333333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.775" style="8" customWidth="1"/>
+    <col min="5" max="5" width="8" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.33333333333333" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.55833333333333" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.3333333333333" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.10833333333333" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12.6666666666667" style="8" customWidth="1"/>
     <col min="11" max="11" width="17.775" customWidth="1"/>
-    <col min="12" max="12" width="26.5583333333333" style="11" customWidth="1"/>
-    <col min="13" max="13" width="14.6666666666667" style="11" customWidth="1"/>
+    <col min="12" max="12" width="26.5583333333333" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.6666666666667" style="8" customWidth="1"/>
     <col min="14" max="16" width="8.55833333333333" customWidth="1"/>
-    <col min="17" max="17" width="14.775" style="11" customWidth="1"/>
-    <col min="18" max="18" width="13.4416666666667" style="11" customWidth="1"/>
-    <col min="19" max="19" width="17" style="11" customWidth="1"/>
-    <col min="20" max="20" width="78.1083333333333" style="11" customWidth="1"/>
-    <col min="21" max="21" width="14.2166666666667" style="11" customWidth="1"/>
-    <col min="22" max="24" width="10.2166666666667" style="11" customWidth="1"/>
-    <col min="25" max="25" width="16.775" style="11" customWidth="1"/>
-    <col min="26" max="26" width="12.775" style="11" customWidth="1"/>
-    <col min="27" max="27" width="19.1083333333333" style="11" customWidth="1"/>
-    <col min="28" max="28" width="13.6666666666667" style="11" customWidth="1"/>
-    <col min="29" max="29" width="13.1083333333333" style="11" customWidth="1"/>
-    <col min="30" max="30" width="16.775" style="11" customWidth="1"/>
-    <col min="31" max="31" width="16.2166666666667" style="11" customWidth="1"/>
-    <col min="32" max="16384" width="8.55833333333333" style="11"/>
+    <col min="17" max="17" width="14.775" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.4416666666667" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17" style="8" customWidth="1"/>
+    <col min="20" max="20" width="78.1083333333333" style="8" customWidth="1"/>
+    <col min="21" max="21" width="14.2166666666667" style="8" customWidth="1"/>
+    <col min="22" max="24" width="10.2166666666667" style="8" customWidth="1"/>
+    <col min="25" max="25" width="16.775" style="8" customWidth="1"/>
+    <col min="26" max="26" width="12.775" style="8" customWidth="1"/>
+    <col min="27" max="27" width="19.1083333333333" style="8" customWidth="1"/>
+    <col min="28" max="28" width="13.6666666666667" style="8" customWidth="1"/>
+    <col min="29" max="29" width="13.1083333333333" style="8" customWidth="1"/>
+    <col min="30" max="30" width="16.775" style="8" customWidth="1"/>
+    <col min="31" max="31" width="16.2166666666667" style="8" customWidth="1"/>
+    <col min="32" max="16384" width="8.55833333333333" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="57" customHeight="1" spans="1:32">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:32">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="6" customFormat="1" ht="12.75" spans="1:32">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1177</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.451462</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1.472</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="F2" s="18">
+        <v>32.32</v>
+      </c>
+      <c r="G2" s="18">
+        <v>27.3</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.6136</v>
+      </c>
+      <c r="I2" s="19">
+        <v>2</v>
+      </c>
+      <c r="J2" s="17">
+        <v>3</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19">
-        <v>908.8</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="L2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>120.24</v>
+      </c>
+      <c r="R2" s="17">
+        <v>31.24</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="17">
+        <v>50</v>
+      </c>
+      <c r="V2" s="17">
         <v>0</v>
       </c>
-      <c r="D2" s="21">
-        <v>2.47</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="F2" s="20">
-        <v>23.71</v>
-      </c>
-      <c r="G2" s="20">
-        <v>29.56</v>
-      </c>
-      <c r="H2" s="22">
+      <c r="W2" s="17">
         <v>0</v>
       </c>
-      <c r="I2" s="23">
+      <c r="X2" s="17">
+        <v>2014</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>101.3</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>0.506</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>16.9</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>0.187</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>83.3</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>74.71</v>
+      </c>
+      <c r="AF2" s="17"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="12.75" spans="1:32">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1177</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.451462</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1.472</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="F3" s="18">
+        <v>28.27</v>
+      </c>
+      <c r="G3" s="18">
+        <v>37.18</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.6136</v>
+      </c>
+      <c r="I3" s="19">
         <v>2</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J3" s="17">
         <v>3</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>120.24</v>
+      </c>
+      <c r="R3" s="17">
+        <v>31.24</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="17">
+        <v>50</v>
+      </c>
+      <c r="V3" s="17">
+        <v>0</v>
+      </c>
+      <c r="W3" s="17">
+        <v>0</v>
+      </c>
+      <c r="X3" s="17">
+        <v>2014</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>2.65</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>0.232</v>
+      </c>
+      <c r="AB3" s="17">
+        <v>1.92</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>0.104</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>59.6</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>60.92</v>
+      </c>
+      <c r="AF3" s="17"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="12.75" spans="1:32">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1177</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.451462</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1.472</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="F4" s="18">
+        <v>23.17</v>
+      </c>
+      <c r="G4" s="18">
+        <v>28.45</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.6136</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2</v>
+      </c>
+      <c r="J4" s="17">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>120.24</v>
+      </c>
+      <c r="R4" s="17">
+        <v>31.24</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="17">
+        <v>50</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17">
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>23.45</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>0.341</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>5.48</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>0.128</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>59.6</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>60.92</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="12.75" spans="1:32">
+      <c r="A5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1423.4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.451462</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5.825</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1.385</v>
+      </c>
+      <c r="F5" s="18">
+        <v>38.15</v>
+      </c>
+      <c r="G5" s="18">
+        <v>37.15</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.6136</v>
+      </c>
+      <c r="I5" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>120.24</v>
+      </c>
+      <c r="R5" s="17">
+        <v>31.24</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="20">
+        <v>88</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <v>2022</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>4.25</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>0.56</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>91.69</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>75.84</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="12.75" spans="1:32">
+      <c r="A6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16">
+        <v>280</v>
+      </c>
+      <c r="C6" s="17">
+        <v>13.3406</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.58</v>
+      </c>
+      <c r="F6" s="18">
+        <v>28.74</v>
+      </c>
+      <c r="G6" s="18">
+        <v>31.72</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.7884</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>111</v>
+      </c>
+      <c r="R6" s="17">
         <v>33</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="21">
-        <v>100.17</v>
-      </c>
-      <c r="R2" s="21">
-        <v>25.89</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="21">
+      <c r="S6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="19">
+        <v>78</v>
+      </c>
+      <c r="V6" s="17">
         <v>0</v>
       </c>
-      <c r="V2" s="21">
-        <v>7.41</v>
-      </c>
-      <c r="W2" s="21">
-        <v>6.64</v>
-      </c>
-      <c r="X2" s="26">
-        <v>2018</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="20">
-        <v>1.583</v>
-      </c>
-      <c r="AA2" s="20">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="20">
-        <v>1.972</v>
-      </c>
-      <c r="AC2" s="20">
-        <v>0.127</v>
-      </c>
-      <c r="AD2" s="21">
-        <v>19.73</v>
-      </c>
-      <c r="AE2" s="21">
-        <v>33.27</v>
-      </c>
-      <c r="AF2" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="12.75" spans="1:32">
-      <c r="A3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="27">
-        <v>582</v>
-      </c>
-      <c r="C3" s="28">
-        <v>29.7189</v>
-      </c>
-      <c r="D3" s="28">
-        <v>3.93</v>
-      </c>
-      <c r="E3" s="28">
-        <v>1.15</v>
-      </c>
-      <c r="F3" s="20">
-        <v>38.27</v>
-      </c>
-      <c r="G3" s="20">
-        <v>36.25</v>
-      </c>
-      <c r="H3" s="28">
-        <v>0.7847</v>
-      </c>
-      <c r="I3" s="23">
-        <v>2</v>
-      </c>
-      <c r="J3" s="23">
-        <v>3</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>100</v>
-      </c>
-      <c r="R3" s="28">
-        <v>25.83</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="21">
+      <c r="W6" s="17">
         <v>0</v>
       </c>
-      <c r="V3" s="28">
-        <v>10.67</v>
-      </c>
-      <c r="W3" s="28">
-        <v>3.2</v>
-      </c>
-      <c r="X3" s="28">
-        <v>2019</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="20">
-        <v>8.53</v>
-      </c>
-      <c r="AA3" s="20">
-        <v>2.478</v>
-      </c>
-      <c r="AB3" s="20">
-        <v>6.382</v>
-      </c>
-      <c r="AC3" s="20">
-        <v>0.826</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>25.21</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>66.67</v>
-      </c>
-      <c r="AF3" s="28"/>
-    </row>
-    <row r="4" s="8" customFormat="1" ht="12.75" spans="1:32">
-      <c r="A4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1106.7</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0.109498</v>
-      </c>
-      <c r="D4" s="31">
-        <v>0.92</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0.64</v>
-      </c>
-      <c r="F4" s="30">
-        <v>28.3</v>
-      </c>
-      <c r="G4" s="30">
-        <v>36.4</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0.6219</v>
-      </c>
-      <c r="I4" s="32">
-        <v>2</v>
-      </c>
-      <c r="J4" s="32">
-        <v>3</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>121.54</v>
-      </c>
-      <c r="R4" s="31">
-        <v>30.88</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="21">
-        <v>0</v>
-      </c>
-      <c r="V4" s="31">
-        <v>6.98</v>
-      </c>
-      <c r="W4" s="31">
-        <v>2.11</v>
-      </c>
-      <c r="X4" s="31">
-        <v>2022</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="AA4" s="31">
-        <v>0.774</v>
-      </c>
-      <c r="AB4" s="31">
-        <v>1.25</v>
-      </c>
-      <c r="AC4" s="31">
-        <v>0.743</v>
-      </c>
-      <c r="AD4" s="31">
-        <v>13.33</v>
-      </c>
-      <c r="AE4" s="31">
-        <v>4.13</v>
-      </c>
-      <c r="AF4" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="12.75" spans="1:32">
-      <c r="A5" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="34">
-        <v>1108.5</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1.73079</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.29</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.49</v>
-      </c>
-      <c r="F5" s="30">
-        <v>36.14</v>
-      </c>
-      <c r="G5" s="30">
-        <v>41.64</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0.0518</v>
-      </c>
-      <c r="I5" s="22">
-        <v>2</v>
-      </c>
-      <c r="J5" s="25">
-        <v>3</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="25" t="s">
+      <c r="X6" s="17">
+        <v>2013</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="Z6" s="17">
+        <v>10.38</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>1.18</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>90.66</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>88.73</v>
+      </c>
+      <c r="AF6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>120.22</v>
-      </c>
-      <c r="R5" s="22">
-        <v>31.125</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="21">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22">
-        <v>222</v>
-      </c>
-      <c r="W5" s="22">
-        <v>111</v>
-      </c>
-      <c r="X5" s="22">
-        <v>2019</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="30">
-        <v>9.02</v>
-      </c>
-      <c r="AA5" s="30">
-        <v>0.747</v>
-      </c>
-      <c r="AB5" s="30">
-        <v>4.927</v>
-      </c>
-      <c r="AC5" s="30">
-        <v>0.472</v>
-      </c>
-      <c r="AD5" s="22">
-        <v>45.38</v>
-      </c>
-      <c r="AE5" s="22">
-        <v>36.81</v>
-      </c>
-      <c r="AF5" s="22"/>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="37.5" spans="1:32">
-      <c r="A6" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="34">
-        <v>773</v>
-      </c>
-      <c r="C6" s="22">
-        <v>20.5797</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.67</v>
-      </c>
-      <c r="F6" s="30">
-        <v>38.18</v>
-      </c>
-      <c r="G6" s="30">
-        <v>35.36</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0.8101</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>3</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="22">
-        <v>118.57</v>
-      </c>
-      <c r="R6" s="22">
-        <v>28.65</v>
-      </c>
-      <c r="S6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="21">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22">
-        <v>22.78</v>
-      </c>
-      <c r="W6" s="30">
-        <v>11</v>
-      </c>
-      <c r="X6" s="22">
-        <v>2020</v>
-      </c>
-      <c r="Y6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="30">
-        <v>6.63</v>
-      </c>
-      <c r="AA6" s="30">
-        <v>1.189</v>
-      </c>
-      <c r="AB6" s="30">
-        <v>4.922</v>
-      </c>
-      <c r="AC6" s="30">
-        <v>0.862</v>
-      </c>
-      <c r="AD6" s="22">
-        <v>25.8</v>
-      </c>
-      <c r="AE6" s="22">
-        <v>27.5</v>
-      </c>
-      <c r="AF6" s="22"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF6" etc:filterBottomFollowUsedRange="0">
@@ -3514,359 +3382,359 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="85.5" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="105.75" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="71.25" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" ht="60" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="105.75" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="125.25" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="85.5" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="71.25" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" ht="57" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="71.25" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="88.5" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" ht="71.25" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="71.25" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" ht="85.5" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" ht="88.5" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" ht="57" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="74.25" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" ht="71.25" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5">
